--- a/Engine/Tables/ValTable.xlsx
+++ b/Engine/Tables/ValTable.xlsx
@@ -13,10 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>ID</t>
+    <t>Description</t>
   </si>
   <si>
     <t>Replace</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Val</t>
@@ -25,74 +28,71 @@
     <t>ValType</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>광고 지연</t>
   </si>
   <si>
     <t>DELAY_ADS</t>
   </si>
   <si>
-    <t>광고 지연</t>
+    <t>광고 시간 간격</t>
   </si>
   <si>
     <t>DELTA_T_ADS</t>
   </si>
   <si>
-    <t>광고 시간 간격</t>
+    <t>기본 퀄리티 수준</t>
   </si>
   <si>
     <t>DEF_QUALITY_LEVEL</t>
   </si>
   <si>
-    <t>기본 퀄리티 수준</t>
+    <t>모바일 퀄리티 수준</t>
   </si>
   <si>
     <t>MOBILE_QUALITY_LEVEL</t>
   </si>
   <si>
-    <t>모바일 퀄리티 수준</t>
+    <t>콘솔 퀄리티 수준</t>
   </si>
   <si>
     <t>CONSOLE_QUALITY_LEVEL</t>
   </si>
   <si>
-    <t>콘솔 퀄리티 수준</t>
+    <t>휴대용 콘솔 퀄리티 수준</t>
   </si>
   <si>
     <t>HANDHELD_CONSOLE_QUALITY_LEVEL</t>
   </si>
   <si>
-    <t>휴대용 콘솔 퀄리티 수준</t>
+    <t>기본 타겟 프레임</t>
   </si>
   <si>
     <t>DEF_TARGET_FRAME_RATE</t>
   </si>
   <si>
-    <t>기본 타겟 프레임</t>
+    <t>모바일 타겟 프레임</t>
   </si>
   <si>
     <t>MOBILE_TARGET_FRAME_RATE</t>
   </si>
   <si>
-    <t>모바일 타겟 프레임</t>
+    <t>콘솔 타겟 프레임</t>
   </si>
   <si>
     <t>CONSOLE_TARGET_FRAME_RATE</t>
   </si>
   <si>
-    <t>콘솔 타겟 프레임</t>
+    <t>휴대용 콘솔 타겟 프레임</t>
   </si>
   <si>
     <t>HANDHELD_CONSOLE_TARGET_FRAME_RATE</t>
-  </si>
-  <si>
-    <t>휴대용 콘솔 타겟 프레임</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -101,6 +101,10 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -121,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -137,9 +141,22 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -154,27 +171,35 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -391,10 +416,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="19.14"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="44.29"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -441,14 +466,14 @@
       <c r="B2" s="3">
         <v>0.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>60.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1.0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -470,339 +495,349 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
         <v>10.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="6">
         <v>1.0</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
         <v>5.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="6">
         <v>0.0</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
         <v>2.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="6">
         <v>0.0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
         <v>3.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="6">
         <v>0.0</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
         <v>2.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="6">
         <v>0.0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
         <v>60.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="6">
         <v>0.0</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6">
         <v>60.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="6">
         <v>0.0</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>0.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6">
         <v>60.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="6">
         <v>0.0</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>0.0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10">
         <v>60.0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="10">
         <v>0.0</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1"/>
